--- a/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
+++ b/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
@@ -341,7 +341,7 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B53" s="65">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B79" s="65">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="B113" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="B114" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
